--- a/BackTest/2020-01-16 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-16 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9914932.181697534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9931713.481697535</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9931713.481697535</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8750936.12156076</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8513924.10956076</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8513924.10956076</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8432608.30256076</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8296246.05156076</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-8482467.356560759</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-8590904.935560759</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8352926.452560759</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8590939.465560758</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8573060.799560759</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-8495271.571560759</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-8376498.041560759</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-8172569.957560759</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-8104229.043560759</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8491908.453160759</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-8730695.724160759</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-8837726.348160759</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-8598062.104160758</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-8358833.648160757</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-8119339.534160757</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-7881608.775160757</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-7847358.726160757</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8029504.385160757</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-7789559.482160757</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8084720.159860757</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8084720.159860757</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-8471320.515760757</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-8232159.501760757</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-8232159.501760757</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-8176088.456760757</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-8284698.692760756</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-8335127.296360756</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-8243185.878760756</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-8032460.736760756</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-8242642.173760756</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-8207693.804760756</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-8289615.056760756</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-8139379.819760757</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-8131182.973760757</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-8062664.601760756</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-7939528.774760757</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-7737629.671960756</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-7691291.380960756</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-7671982.254460756</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-7517593.432660756</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-7755846.294660755</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-7755846.294660755</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-7753777.778460755</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-7753777.778460755</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-7798757.337460755</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-7832431.474060755</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-7730680.835060755</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-7553417.915060755</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-7559256.273960755</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-7719308.351960755</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-7481243.996960755</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-7499008.448560755</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-7499008.448560755</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-7531943.466560755</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-7531943.466560755</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-7572752.301460755</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-7712806.426460755</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-8290021.351560755</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-8348422.327860755</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8174081.907860755</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-8174081.907860755</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-8136324.984860755</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-7896530.859860755</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-8136470.572860755</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-7896314.872860755</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-7853648.372860755</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-8025747.593460755</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-7920008.009460756</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-8069266.646460756</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-8264534.153560756</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-8175380.409560756</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-8019074.420560756</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-7796095.951560756</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-7780072.315560756</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-7693630.259560756</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-7825577.987560757</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-8024899.553560756</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-8002061.141560757</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-7942463.316560756</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-8043688.129560756</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-8044114.641560757</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-8044114.641560757</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-7964876.084560757</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-7857031.687560757</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-7848335.256560757</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-7878002.863560757</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7780010.950560757</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-7639320.817560757</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-7640119.617560756</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-7614736.905560756</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-7614736.905560756</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-7501374.385560757</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-7498599.361560756</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-7457941.985560756</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-7541341.356560756</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-7733961.924560756</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-7619238.282560756</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-7875972.523960756</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-7928973.707960756</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-7928973.707960756</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-7984444.082960756</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-8082565.883960756</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-8215263.440960757</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-10938721.41776076</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-10918483.39976076</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-10853222.86876076</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-10853222.86876076</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-10911557.12596076</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-10964081.42396076</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-11045692.50096076</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-11095525.50096076</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-11985667.85326076</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-11974614.34626076</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-11941045.15226076</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-11998517.72426076</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-11911800.98926076</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-11934356.23126076</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-11934356.23126076</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-11934356.23126076</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-11934356.23126076</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-12784569.44146076</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-13219430.63796076</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-15206326.73636076</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-15173107.65136076</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-15229701.52836076</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-15229701.52836076</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-15199069.28036076</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-15122529.20636076</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-15018747.68536076</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-15027881.02236076</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-15050609.37936076</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-15093543.19636076</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-15431721.40916076</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-15264334.53716076</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-15410761.17986076</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-15397182.40286076</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-15397182.40286076</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-15397182.40286076</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-15395636.61986076</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-15391704.96186076</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-15384720.08586076</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-15385822.54286076</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-15383280.12386076</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-15379247.45286076</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-15384147.47186076</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-15391565.20286076</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-15381477.27986076</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-15374896.31986076</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-15374896.31986076</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-15374751.68586076</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-15375981.57686076</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-15373678.60086076</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-15373535.71786076</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-15370360.14686076</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-15370360.14686076</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-15053263.14686076</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-15053391.38386076</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-15057607.81086076</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-15063613.81286076</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-15390697.67356076</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-15390697.67356076</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-15390697.67356076</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-15388667.30656076</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-15388667.30656076</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-15432760.58406076</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-15548437.63176076</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-15273806.94046076</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-15274846.96546076</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-15272687.80546076</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-15276920.51346076</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-15276599.39346076</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-15280667.06146076</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-15274956.87346076</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-15269683.72846076</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-15269683.72846076</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-15278721.70046076</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-15279493.53246076</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-15418524.61616076</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-15422265.71716076</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-15475583.84416076</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-15478398.20206076</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-15476962.67306077</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-15476962.67306077</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-15471821.36006077</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-15473440.37006077</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-15470133.92206077</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-15470005.55606076</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-15469179.49106077</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-15743280.90336077</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-15743280.90336077</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-15743280.90336077</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-15738098.04336077</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-15796496.01266077</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-15897135.48986077</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-15899915.93786077</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-15942253.45346077</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-16238646.86176077</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-16538646.86176077</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-16538646.86176077</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-16538646.86176077</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-16538646.86176077</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-16357726.59326077</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-17137726.59326077</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-17460133.14936076</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-17456731.91536076</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-17481134.14036077</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-19084469.58376076</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-20930850.31176076</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-20927263.85976076</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-20922012.95476076</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-20922012.95476076</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-20917852.26876076</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-20910354.13376076</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-20908875.41176076</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-20904666.49376076</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-20910738.29976076</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-21102746.37906076</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-21100430.95736076</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-21516306.85476076</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-21410393.38408548</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-21410393.38408548</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-21490468.43458549</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-21899167.43458549</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-21899167.43458549</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-21825116.09248549</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-22457127.39858549</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-22457127.39858549</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-22457127.39858549</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-22457127.39858549</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-23505165.81458549</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-23505165.81458549</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-23502719.13158549</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-24096383.17998549</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-37294085.26100092</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-37601332.32150092</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-37601332.32150092</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-37642781.36960092</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-37692046.52890092</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-37718001.57590092</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-37717600.18878253</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-37364507.65830092</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-37364507.65830092</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-37474247.69210092</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-37476208.24410092</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-37479169.18410092</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-37484335.27110092</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-37486547.16461928</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-37484133.82261928</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-37480165.85361928</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-37449402.87331928</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-37541179.97931928</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-37539762.88748255</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-37543672.98048255</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-37542672.98048255</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -27511,10 +27511,14 @@
         <v>-61318307.61852292</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="J822" t="n">
+        <v>3.792</v>
+      </c>
       <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
@@ -27544,11 +27548,19 @@
         <v>-61318307.61852292</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>3.779</v>
+      </c>
+      <c r="J823" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27580,8 +27592,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27613,8 +27631,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27646,8 +27670,14 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27679,8 +27709,14 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27712,8 +27748,14 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27745,8 +27787,14 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27778,8 +27826,14 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27811,8 +27865,14 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27844,8 +27904,14 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27877,8 +27943,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27910,8 +27982,14 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27943,8 +28021,14 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27976,8 +28060,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28009,8 +28099,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28042,8 +28138,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28075,8 +28177,14 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28108,8 +28216,14 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28141,8 +28255,14 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28171,11 +28291,19 @@
         <v>-66359031.02262292</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="J842" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28204,11 +28332,19 @@
         <v>-66366629.14632292</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>3.723</v>
+      </c>
+      <c r="J843" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28237,11 +28373,19 @@
         <v>-66366629.14632292</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="J844" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28270,15 +28414,19 @@
         <v>-66324891.20012292</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I845" t="n">
         <v>3.72</v>
       </c>
       <c r="J845" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="K845" t="inlineStr"/>
+        <v>3.792</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,17 +28455,17 @@
         <v>-66324891.20012292</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>3.721</v>
       </c>
       <c r="J846" t="n">
-        <v>3.72</v>
+        <v>3.792</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L846" t="n">
@@ -28348,17 +28496,17 @@
         <v>-66255475.53612293</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>3.721</v>
       </c>
       <c r="J847" t="n">
-        <v>3.72</v>
+        <v>3.792</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L847" t="n">
@@ -28389,15 +28537,19 @@
         <v>-66228208.11112293</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>3.722</v>
       </c>
       <c r="J848" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="K848" t="inlineStr"/>
+        <v>3.792</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28426,17 +28578,17 @@
         <v>-66228208.11112293</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I849" t="n">
         <v>3.724</v>
       </c>
       <c r="J849" t="n">
-        <v>3.722</v>
+        <v>3.792</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L849" t="n">
@@ -28467,17 +28619,17 @@
         <v>-66130154.59312293</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I850" t="n">
         <v>3.724</v>
       </c>
       <c r="J850" t="n">
-        <v>3.722</v>
+        <v>3.792</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L850" t="n">
@@ -28508,15 +28660,19 @@
         <v>-66055826.70152293</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I851" t="n">
         <v>3.727</v>
       </c>
       <c r="J851" t="n">
-        <v>3.727</v>
-      </c>
-      <c r="K851" t="inlineStr"/>
+        <v>3.792</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28545,17 +28701,17 @@
         <v>-66032476.89752293</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I852" t="n">
         <v>3.748</v>
       </c>
       <c r="J852" t="n">
-        <v>3.727</v>
+        <v>3.792</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L852" t="n">
@@ -28586,17 +28742,15 @@
         <v>-65974821.91958673</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
-      </c>
-      <c r="I853" t="n">
-        <v>3.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>3.727</v>
+        <v>3.792</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L853" t="n">
@@ -28630,8 +28784,14 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28663,8 +28823,14 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28696,8 +28862,14 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28729,8 +28901,14 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28762,8 +28940,14 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28795,8 +28979,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28828,8 +29018,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28861,8 +29057,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28894,8 +29096,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28927,8 +29135,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28960,8 +29174,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28993,8 +29213,14 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29026,8 +29252,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29059,8 +29291,14 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29092,8 +29330,14 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29125,8 +29369,14 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29158,8 +29408,14 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29191,8 +29447,14 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29224,8 +29486,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29257,8 +29525,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29290,8 +29564,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29323,8 +29603,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29356,8 +29642,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29389,8 +29681,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29422,8 +29720,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29455,8 +29759,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29488,8 +29798,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29521,8 +29837,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29554,8 +29876,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29587,8 +29915,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29620,8 +29954,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29653,8 +29993,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29686,8 +30032,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29719,8 +30071,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29752,8 +30110,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29785,8 +30149,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29818,8 +30188,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29851,8 +30227,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29884,8 +30266,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29917,8 +30305,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29950,8 +30344,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29983,8 +30383,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30016,8 +30422,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30049,8 +30461,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30082,8 +30500,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30115,8 +30539,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30148,8 +30578,14 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30181,8 +30617,14 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30214,8 +30656,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30247,8 +30695,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30280,8 +30734,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30313,8 +30773,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30346,8 +30812,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30379,8 +30851,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30412,14 +30890,20 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
       <c r="M908" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-16 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9914932.181697534</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8750936.12156076</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8513924.10956076</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8513924.10956076</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8432608.30256076</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8296246.05156076</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-8482467.356560759</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-8590904.935560759</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8352926.452560759</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8590939.465560758</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8573060.799560759</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-8495271.571560759</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-8376498.041560759</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-8172569.957560759</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-7881608.775160757</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-7847358.726160757</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8029504.385160757</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-7789559.482160757</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8084720.159860757</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8084720.159860757</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-8471320.515760757</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-8232159.501760757</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-8232159.501760757</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-8176088.456760757</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-7691291.380960756</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-7671982.254460756</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-7481243.996960755</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-7499008.448560755</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-7499008.448560755</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-7531943.466560755</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-7531943.466560755</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-7572752.301460755</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-7712806.426460755</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-8290021.351560755</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-8348422.327860755</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8174081.907860755</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-8174081.907860755</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-8136324.984860755</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-7896530.859860755</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-8136470.572860755</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-7896314.872860755</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-7853648.372860755</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-8019074.420560756</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-7796095.951560756</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-7780072.315560756</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-7693630.259560756</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-7825577.987560757</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-8024899.553560756</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-8002061.141560757</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-7942463.316560756</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-8043688.129560756</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-8044114.641560757</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-8044114.641560757</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-7964876.084560757</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-7857031.687560757</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-7848335.256560757</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-7878002.863560757</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7780010.950560757</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-7639320.817560757</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-7640119.617560756</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-7614736.905560756</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-7614736.905560756</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-7501374.385560757</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-7498599.361560756</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-7457941.985560756</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-7541341.356560756</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-7619238.282560756</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-7875972.523960756</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-7928973.707960756</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-7928973.707960756</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-7984444.082960756</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-8082565.883960756</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-8215263.440960757</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-10938721.41776076</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-10918483.39976076</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-10853222.86876076</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-10853222.86876076</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-10911557.12596076</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-10964081.42396076</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-11045692.50096076</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-11095525.50096076</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-11985667.85326076</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-11974614.34626076</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-11941045.15226076</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-11998517.72426076</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-11911800.98926076</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-11934356.23126076</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-11934356.23126076</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-11934356.23126076</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-11934356.23126076</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-12784569.44146076</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-13219430.63796076</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-15206326.73636076</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-15173107.65136076</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-15229701.52836076</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-15229701.52836076</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-15199069.28036076</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-15122529.20636076</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-15018747.68536076</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-15027881.02236076</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-15050609.37936076</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-15093543.19636076</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-15431721.40916076</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-15264334.53716076</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-15410761.17986076</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-15397182.40286076</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-15397182.40286076</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-15397182.40286076</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-15395636.61986076</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-15391704.96186076</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-15384720.08586076</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-15385822.54286076</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-15383280.12386076</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-15379247.45286076</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-15384147.47186076</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-15391565.20286076</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-15381477.27986076</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-15374896.31986076</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-15374896.31986076</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-15374751.68586076</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-15375981.57686076</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-15373678.60086076</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-15373535.71786076</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-15370360.14686076</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-15370360.14686076</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-15053263.14686076</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-15053391.38386076</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-15057607.81086076</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-15063613.81286076</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-15390697.67356076</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-15390697.67356076</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-15390697.67356076</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-15388667.30656076</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-15388667.30656076</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-15432760.58406076</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-15548437.63176076</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-15273806.94046076</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-15274846.96546076</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-15272687.80546076</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-15276920.51346076</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-15276599.39346076</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-15280667.06146076</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-15274956.87346076</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-15269683.72846076</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-15269683.72846076</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-15278721.70046076</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-15279493.53246076</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-15418524.61616076</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-15422265.71716076</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-15475583.84416076</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-15478398.20206076</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-15476962.67306077</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-15476962.67306077</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-15471821.36006077</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-15473440.37006077</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-15470133.92206077</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-15470005.55606076</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-15469179.49106077</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-15743280.90336077</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-15743280.90336077</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-15743280.90336077</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-15738098.04336077</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-15796496.01266077</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-15897135.48986077</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-15899915.93786077</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-15942253.45346077</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-16238646.86176077</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-16538646.86176077</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-16538646.86176077</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-16538646.86176077</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-16538646.86176077</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-16357726.59326077</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-17137726.59326077</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-17460133.14936076</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-17456731.91536076</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-17481134.14036077</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-19084469.58376076</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-20930850.31176076</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-20927263.85976076</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-20922012.95476076</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-20922012.95476076</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-20917852.26876076</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-20910354.13376076</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-20908875.41176076</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-20904666.49376076</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-20910738.29976076</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-21102746.37906076</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-21100430.95736076</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-21516306.85476076</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-21410393.38408548</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-21410393.38408548</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-21490468.43458549</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-21899167.43458549</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-21899167.43458549</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-21825116.09248549</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-22457127.39858549</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-22457127.39858549</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-22457127.39858549</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-22457127.39858549</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-23505165.81458549</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-23505165.81458549</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-23502719.13158549</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-24096383.17998549</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-34274651.05418313</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-34924651.05418313</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-34459969.98188312</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-34516414.33778312</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-34662742.24498312</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-34738852.78668312</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-34925617.21148312</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-39845462.94450092</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-39753617.60900091</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-38985785.38654104</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-37300380.69000091</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-37294085.26100092</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-37601332.32150092</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-37601332.32150092</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-37642781.36960092</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-37692046.52890092</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-37718001.57590092</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-37713530.10678253</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-37717600.18878253</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-37479169.18410092</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-37484335.27110092</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-37486547.16461928</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-37484133.82261928</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-37480165.85361928</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-37449402.87331928</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -27511,14 +27511,10 @@
         <v>-61318307.61852292</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="J822" t="n">
-        <v>3.792</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
@@ -27548,19 +27544,11 @@
         <v>-61318307.61852292</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>3.779</v>
-      </c>
-      <c r="J823" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27592,3078 +27580,2588 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
+      <c r="L824" t="n">
+        <v>1</v>
+      </c>
+      <c r="M824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="C825" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D825" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="E825" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F825" t="n">
+        <v>42059.5352</v>
+      </c>
+      <c r="G825" t="n">
+        <v>-61460342.23972292</v>
+      </c>
+      <c r="H825" t="n">
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="n">
+        <v>1</v>
+      </c>
+      <c r="M825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="C826" t="n">
+        <v>3.752</v>
+      </c>
+      <c r="D826" t="n">
+        <v>3.752</v>
+      </c>
+      <c r="E826" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="F826" t="n">
+        <v>112071.6923</v>
+      </c>
+      <c r="G826" t="n">
+        <v>-61348270.54742292</v>
+      </c>
+      <c r="H826" t="n">
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="n">
+        <v>1</v>
+      </c>
+      <c r="M826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="C827" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D827" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="E827" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F827" t="n">
+        <v>205700</v>
+      </c>
+      <c r="G827" t="n">
+        <v>-61553970.54742292</v>
+      </c>
+      <c r="H827" t="n">
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="n">
+        <v>1</v>
+      </c>
+      <c r="M827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="C828" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="D828" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="E828" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="F828" t="n">
+        <v>87893.836</v>
+      </c>
+      <c r="G828" t="n">
+        <v>-61466076.71142292</v>
+      </c>
+      <c r="H828" t="n">
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="n">
+        <v>1</v>
+      </c>
+      <c r="M828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="n">
+        <v>3.752</v>
+      </c>
+      <c r="C829" t="n">
+        <v>3.752</v>
+      </c>
+      <c r="D829" t="n">
+        <v>3.752</v>
+      </c>
+      <c r="E829" t="n">
+        <v>3.752</v>
+      </c>
+      <c r="F829" t="n">
+        <v>1443.37</v>
+      </c>
+      <c r="G829" t="n">
+        <v>-61464633.34142292</v>
+      </c>
+      <c r="H829" t="n">
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="n">
+        <v>1</v>
+      </c>
+      <c r="M829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="C830" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="D830" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="E830" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="F830" t="n">
+        <v>97637.906</v>
+      </c>
+      <c r="G830" t="n">
+        <v>-61562271.24742293</v>
+      </c>
+      <c r="H830" t="n">
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="n">
+        <v>1</v>
+      </c>
+      <c r="M830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="C831" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="D831" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E831" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="F831" t="n">
+        <v>71601.3817</v>
+      </c>
+      <c r="G831" t="n">
+        <v>-61633872.62912293</v>
+      </c>
+      <c r="H831" t="n">
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="n">
+        <v>1</v>
+      </c>
+      <c r="M831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="C832" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="D832" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="E832" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="F832" t="n">
+        <v>131902.485</v>
+      </c>
+      <c r="G832" t="n">
+        <v>-61501970.14412293</v>
+      </c>
+      <c r="H832" t="n">
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="n">
+        <v>1</v>
+      </c>
+      <c r="M832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="n">
+        <v>3.746</v>
+      </c>
+      <c r="C833" t="n">
+        <v>3.746</v>
+      </c>
+      <c r="D833" t="n">
+        <v>3.746</v>
+      </c>
+      <c r="E833" t="n">
+        <v>3.746</v>
+      </c>
+      <c r="F833" t="n">
+        <v>7792.145</v>
+      </c>
+      <c r="G833" t="n">
+        <v>-61509762.28912293</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="n">
+        <v>1</v>
+      </c>
+      <c r="M833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="C834" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="D834" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="E834" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F834" t="n">
+        <v>5180440.8209</v>
+      </c>
+      <c r="G834" t="n">
+        <v>-66690203.11002293</v>
+      </c>
+      <c r="H834" t="n">
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="n">
+        <v>1</v>
+      </c>
+      <c r="M834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="C835" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="D835" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="E835" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="F835" t="n">
+        <v>73299.031</v>
+      </c>
+      <c r="G835" t="n">
+        <v>-66616904.07902293</v>
+      </c>
+      <c r="H835" t="n">
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="n">
+        <v>1</v>
+      </c>
+      <c r="M835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="C836" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="D836" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="E836" t="n">
+        <v>3.729</v>
+      </c>
+      <c r="F836" t="n">
+        <v>182971.2955</v>
+      </c>
+      <c r="G836" t="n">
+        <v>-66433932.78352293</v>
+      </c>
+      <c r="H836" t="n">
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="n">
+        <v>1</v>
+      </c>
+      <c r="M836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="C837" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="D837" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="E837" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="F837" t="n">
+        <v>47172.691</v>
+      </c>
+      <c r="G837" t="n">
+        <v>-66481105.47452293</v>
+      </c>
+      <c r="H837" t="n">
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="n">
+        <v>1</v>
+      </c>
+      <c r="M837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="C838" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="D838" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="E838" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="F838" t="n">
+        <v>114702.0237</v>
+      </c>
+      <c r="G838" t="n">
+        <v>-66366403.45082293</v>
+      </c>
+      <c r="H838" t="n">
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="n">
+        <v>1</v>
+      </c>
+      <c r="M838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="n">
+        <v>3.746</v>
+      </c>
+      <c r="C839" t="n">
+        <v>3.746</v>
+      </c>
+      <c r="D839" t="n">
+        <v>3.746</v>
+      </c>
+      <c r="E839" t="n">
+        <v>3.746</v>
+      </c>
+      <c r="F839" t="n">
+        <v>12513.245</v>
+      </c>
+      <c r="G839" t="n">
+        <v>-66378916.69582292</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="n">
+        <v>1</v>
+      </c>
+      <c r="M839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="C840" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="D840" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="E840" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="F840" t="n">
+        <v>49201.0182</v>
+      </c>
+      <c r="G840" t="n">
+        <v>-66329715.67762292</v>
+      </c>
+      <c r="H840" t="n">
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="n">
+        <v>1</v>
+      </c>
+      <c r="M840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C841" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="D841" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="E841" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F841" t="n">
+        <v>77182.045</v>
+      </c>
+      <c r="G841" t="n">
+        <v>-66406897.72262292</v>
+      </c>
+      <c r="H841" t="n">
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="n">
+        <v>1</v>
+      </c>
+      <c r="M841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="n">
+        <v>3.723</v>
+      </c>
+      <c r="C842" t="n">
+        <v>3.723</v>
+      </c>
+      <c r="D842" t="n">
+        <v>3.723</v>
+      </c>
+      <c r="E842" t="n">
+        <v>3.723</v>
+      </c>
+      <c r="F842" t="n">
+        <v>47866.7</v>
+      </c>
+      <c r="G842" t="n">
+        <v>-66359031.02262292</v>
+      </c>
+      <c r="H842" t="n">
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="n">
+        <v>1</v>
+      </c>
+      <c r="M842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="C843" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="D843" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="E843" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F843" t="n">
+        <v>7598.1237</v>
+      </c>
+      <c r="G843" t="n">
+        <v>-66366629.14632292</v>
+      </c>
+      <c r="H843" t="n">
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="n">
+        <v>1</v>
+      </c>
+      <c r="M843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C844" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="D844" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E844" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F844" t="n">
+        <v>354.3398</v>
+      </c>
+      <c r="G844" t="n">
+        <v>-66366629.14632292</v>
+      </c>
+      <c r="H844" t="n">
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="n">
+        <v>1</v>
+      </c>
+      <c r="M844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="C845" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="D845" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="E845" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="F845" t="n">
+        <v>41737.9462</v>
+      </c>
+      <c r="G845" t="n">
+        <v>-66324891.20012292</v>
+      </c>
+      <c r="H845" t="n">
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="n">
+        <v>1</v>
+      </c>
+      <c r="M845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="C846" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="D846" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="E846" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="F846" t="n">
+        <v>166.5267</v>
+      </c>
+      <c r="G846" t="n">
+        <v>-66324891.20012292</v>
+      </c>
+      <c r="H846" t="n">
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="n">
+        <v>1</v>
+      </c>
+      <c r="M846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="C847" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="D847" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="E847" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="F847" t="n">
+        <v>69415.664</v>
+      </c>
+      <c r="G847" t="n">
+        <v>-66255475.53612293</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="n">
+        <v>1</v>
+      </c>
+      <c r="M847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="C848" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="D848" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="E848" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="F848" t="n">
+        <v>27267.425</v>
+      </c>
+      <c r="G848" t="n">
+        <v>-66228208.11112293</v>
+      </c>
+      <c r="H848" t="n">
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="n">
+        <v>1</v>
+      </c>
+      <c r="M848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="C849" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="D849" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="E849" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="F849" t="n">
+        <v>60980.657</v>
+      </c>
+      <c r="G849" t="n">
+        <v>-66228208.11112293</v>
+      </c>
+      <c r="H849" t="n">
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="n">
+        <v>1</v>
+      </c>
+      <c r="M849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="n">
+        <v>3.727</v>
+      </c>
+      <c r="C850" t="n">
+        <v>3.727</v>
+      </c>
+      <c r="D850" t="n">
+        <v>3.727</v>
+      </c>
+      <c r="E850" t="n">
+        <v>3.727</v>
+      </c>
+      <c r="F850" t="n">
+        <v>98053.518</v>
+      </c>
+      <c r="G850" t="n">
+        <v>-66130154.59312293</v>
+      </c>
+      <c r="H850" t="n">
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="n">
+        <v>1</v>
+      </c>
+      <c r="M850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="C851" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="D851" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="E851" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="F851" t="n">
+        <v>74327.8916</v>
+      </c>
+      <c r="G851" t="n">
+        <v>-66055826.70152293</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="n">
+        <v>1</v>
+      </c>
+      <c r="M851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="n">
+        <v>3.749</v>
+      </c>
+      <c r="C852" t="n">
+        <v>3.749</v>
+      </c>
+      <c r="D852" t="n">
+        <v>3.749</v>
+      </c>
+      <c r="E852" t="n">
+        <v>3.749</v>
+      </c>
+      <c r="F852" t="n">
+        <v>23349.804</v>
+      </c>
+      <c r="G852" t="n">
+        <v>-66032476.89752293</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="n">
+        <v>1</v>
+      </c>
+      <c r="M852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="n">
+        <v>3.793</v>
+      </c>
+      <c r="C853" t="n">
+        <v>3.789</v>
+      </c>
+      <c r="D853" t="n">
+        <v>3.793</v>
+      </c>
+      <c r="E853" t="n">
+        <v>3.789</v>
+      </c>
+      <c r="F853" t="n">
+        <v>57654.97793619826</v>
+      </c>
+      <c r="G853" t="n">
+        <v>-65974821.91958673</v>
+      </c>
+      <c r="H853" t="n">
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="n">
+        <v>1</v>
+      </c>
+      <c r="M853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="C854" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D854" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="E854" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="F854" t="n">
+        <v>131649.353</v>
+      </c>
+      <c r="G854" t="n">
+        <v>-66106471.27258673</v>
+      </c>
+      <c r="H854" t="n">
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="n">
+        <v>1</v>
+      </c>
+      <c r="M854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="n">
+        <v>3.788</v>
+      </c>
+      <c r="C855" t="n">
+        <v>3.788</v>
+      </c>
+      <c r="D855" t="n">
+        <v>3.788</v>
+      </c>
+      <c r="E855" t="n">
+        <v>3.788</v>
+      </c>
+      <c r="F855" t="n">
+        <v>15867.323</v>
+      </c>
+      <c r="G855" t="n">
+        <v>-66090603.94958673</v>
+      </c>
+      <c r="H855" t="n">
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="n">
+        <v>1</v>
+      </c>
+      <c r="M855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C856" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D856" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E856" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F856" t="n">
+        <v>150600.858</v>
+      </c>
+      <c r="G856" t="n">
+        <v>-65940003.09158673</v>
+      </c>
+      <c r="H856" t="n">
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="n">
+        <v>1</v>
+      </c>
+      <c r="M856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="n">
         <v>3.792</v>
       </c>
-      <c r="K824" t="inlineStr">
+      <c r="C857" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="D857" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="E857" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="F857" t="n">
+        <v>258095.991</v>
+      </c>
+      <c r="G857" t="n">
+        <v>-65681907.10058673</v>
+      </c>
+      <c r="H857" t="n">
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="n">
+        <v>1</v>
+      </c>
+      <c r="M857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="n">
+        <v>3.793</v>
+      </c>
+      <c r="C858" t="n">
+        <v>3.793</v>
+      </c>
+      <c r="D858" t="n">
+        <v>3.793</v>
+      </c>
+      <c r="E858" t="n">
+        <v>3.793</v>
+      </c>
+      <c r="F858" t="n">
+        <v>32430.27499140522</v>
+      </c>
+      <c r="G858" t="n">
+        <v>-65649476.82559533</v>
+      </c>
+      <c r="H858" t="n">
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="n">
+        <v>1</v>
+      </c>
+      <c r="M858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="n">
+        <v>3.806</v>
+      </c>
+      <c r="C859" t="n">
+        <v>3.807</v>
+      </c>
+      <c r="D859" t="n">
+        <v>3.807</v>
+      </c>
+      <c r="E859" t="n">
+        <v>3.806</v>
+      </c>
+      <c r="F859" t="n">
+        <v>73299.33876931161</v>
+      </c>
+      <c r="G859" t="n">
+        <v>-65576177.48682602</v>
+      </c>
+      <c r="H859" t="n">
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="n">
+        <v>1</v>
+      </c>
+      <c r="M859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="n">
+        <v>3.808</v>
+      </c>
+      <c r="C860" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D860" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E860" t="n">
+        <v>3.808</v>
+      </c>
+      <c r="F860" t="n">
+        <v>133023.041</v>
+      </c>
+      <c r="G860" t="n">
+        <v>-65443154.44582602</v>
+      </c>
+      <c r="H860" t="n">
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="n">
+        <v>1</v>
+      </c>
+      <c r="M860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="n">
+        <v>3.813</v>
+      </c>
+      <c r="C861" t="n">
+        <v>3.813</v>
+      </c>
+      <c r="D861" t="n">
+        <v>3.813</v>
+      </c>
+      <c r="E861" t="n">
+        <v>3.813</v>
+      </c>
+      <c r="F861" t="n">
+        <v>386.882</v>
+      </c>
+      <c r="G861" t="n">
+        <v>-65442767.56382602</v>
+      </c>
+      <c r="H861" t="n">
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
+      <c r="L861" t="n">
+        <v>1</v>
+      </c>
+      <c r="M861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="C862" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="D862" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="E862" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="F862" t="n">
+        <v>58398.034</v>
+      </c>
+      <c r="G862" t="n">
+        <v>-65501165.59782602</v>
+      </c>
+      <c r="H862" t="n">
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
+      <c r="L862" t="n">
+        <v>1</v>
+      </c>
+      <c r="M862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="n">
+        <v>3.806</v>
+      </c>
+      <c r="C863" t="n">
+        <v>3.806</v>
+      </c>
+      <c r="D863" t="n">
+        <v>3.806</v>
+      </c>
+      <c r="E863" t="n">
+        <v>3.806</v>
+      </c>
+      <c r="F863" t="n">
+        <v>101092.816</v>
+      </c>
+      <c r="G863" t="n">
+        <v>-65602258.41382602</v>
+      </c>
+      <c r="H863" t="n">
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
+      <c r="L863" t="n">
+        <v>1</v>
+      </c>
+      <c r="M863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="n">
+        <v>3.808</v>
+      </c>
+      <c r="C864" t="n">
+        <v>3.808</v>
+      </c>
+      <c r="D864" t="n">
+        <v>3.808</v>
+      </c>
+      <c r="E864" t="n">
+        <v>3.808</v>
+      </c>
+      <c r="F864" t="n">
+        <v>3156.829</v>
+      </c>
+      <c r="G864" t="n">
+        <v>-65599101.58482601</v>
+      </c>
+      <c r="H864" t="n">
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
+      <c r="L864" t="n">
+        <v>1</v>
+      </c>
+      <c r="M864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="n">
+        <v>3.807</v>
+      </c>
+      <c r="C865" t="n">
+        <v>3.807</v>
+      </c>
+      <c r="D865" t="n">
+        <v>3.807</v>
+      </c>
+      <c r="E865" t="n">
+        <v>3.807</v>
+      </c>
+      <c r="F865" t="n">
+        <v>66631.478</v>
+      </c>
+      <c r="G865" t="n">
+        <v>-65665733.06282602</v>
+      </c>
+      <c r="H865" t="n">
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="n">
+        <v>1</v>
+      </c>
+      <c r="M865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="n">
+        <v>3.789</v>
+      </c>
+      <c r="C866" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D866" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E866" t="n">
+        <v>3.789</v>
+      </c>
+      <c r="F866" t="n">
+        <v>123408.3633</v>
+      </c>
+      <c r="G866" t="n">
+        <v>-65789141.42612602</v>
+      </c>
+      <c r="H866" t="n">
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
+      <c r="L866" t="n">
+        <v>1</v>
+      </c>
+      <c r="M866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C867" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D867" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E867" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F867" t="n">
+        <v>9590.9625</v>
+      </c>
+      <c r="G867" t="n">
+        <v>-65779550.46362602</v>
+      </c>
+      <c r="H867" t="n">
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
+      <c r="L867" t="n">
+        <v>1</v>
+      </c>
+      <c r="M867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="n">
+        <v>3.799</v>
+      </c>
+      <c r="C868" t="n">
+        <v>3.799</v>
+      </c>
+      <c r="D868" t="n">
+        <v>3.799</v>
+      </c>
+      <c r="E868" t="n">
+        <v>3.799</v>
+      </c>
+      <c r="F868" t="n">
+        <v>6201.233</v>
+      </c>
+      <c r="G868" t="n">
+        <v>-65785751.69662602</v>
+      </c>
+      <c r="H868" t="n">
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
+      <c r="L868" t="n">
+        <v>1</v>
+      </c>
+      <c r="M868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="n">
+        <v>3.797</v>
+      </c>
+      <c r="C869" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D869" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E869" t="n">
+        <v>3.797</v>
+      </c>
+      <c r="F869" t="n">
+        <v>44808.6075</v>
+      </c>
+      <c r="G869" t="n">
+        <v>-65740943.08912602</v>
+      </c>
+      <c r="H869" t="n">
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
+      <c r="L869" t="n">
+        <v>1</v>
+      </c>
+      <c r="M869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="C870" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="D870" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="E870" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="F870" t="n">
+        <v>71608.382</v>
+      </c>
+      <c r="G870" t="n">
+        <v>-65669334.70712602</v>
+      </c>
+      <c r="H870" t="n">
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
+      <c r="L870" t="n">
+        <v>1</v>
+      </c>
+      <c r="M870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C871" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="D871" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E871" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F871" t="n">
+        <v>102655.6875</v>
+      </c>
+      <c r="G871" t="n">
+        <v>-65771990.39462602</v>
+      </c>
+      <c r="H871" t="n">
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
+      <c r="L871" t="n">
+        <v>1</v>
+      </c>
+      <c r="M871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="C872" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D872" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="E872" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="F872" t="n">
+        <v>26393.78</v>
+      </c>
+      <c r="G872" t="n">
+        <v>-65798384.17462602</v>
+      </c>
+      <c r="H872" t="n">
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
+      <c r="L872" t="n">
+        <v>1</v>
+      </c>
+      <c r="M872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="n">
+        <v>3.779</v>
+      </c>
+      <c r="C873" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="D873" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E873" t="n">
+        <v>3.779</v>
+      </c>
+      <c r="F873" t="n">
+        <v>131195.8435</v>
+      </c>
+      <c r="G873" t="n">
+        <v>-65667188.33112602</v>
+      </c>
+      <c r="H873" t="n">
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
+      <c r="L873" t="n">
+        <v>1</v>
+      </c>
+      <c r="M873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C874" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="D874" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E874" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F874" t="n">
+        <v>70410.6434</v>
+      </c>
+      <c r="G874" t="n">
+        <v>-65667188.33112602</v>
+      </c>
+      <c r="H874" t="n">
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
+      <c r="L874" t="n">
+        <v>1</v>
+      </c>
+      <c r="M874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="n">
+        <v>3.779</v>
+      </c>
+      <c r="C875" t="n">
+        <v>3.779</v>
+      </c>
+      <c r="D875" t="n">
+        <v>3.779</v>
+      </c>
+      <c r="E875" t="n">
+        <v>3.779</v>
+      </c>
+      <c r="F875" t="n">
+        <v>81760.573</v>
+      </c>
+      <c r="G875" t="n">
+        <v>-65748948.90412602</v>
+      </c>
+      <c r="H875" t="n">
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
+      <c r="L875" t="n">
+        <v>1</v>
+      </c>
+      <c r="M875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="n">
+        <v>3.776</v>
+      </c>
+      <c r="C876" t="n">
+        <v>3.776</v>
+      </c>
+      <c r="D876" t="n">
+        <v>3.776</v>
+      </c>
+      <c r="E876" t="n">
+        <v>3.776</v>
+      </c>
+      <c r="F876" t="n">
+        <v>11098.141</v>
+      </c>
+      <c r="G876" t="n">
+        <v>-65760047.04512602</v>
+      </c>
+      <c r="H876" t="n">
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
+      <c r="L876" t="n">
+        <v>1</v>
+      </c>
+      <c r="M876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="n">
+        <v>3.781</v>
+      </c>
+      <c r="C877" t="n">
+        <v>3.781</v>
+      </c>
+      <c r="D877" t="n">
+        <v>3.781</v>
+      </c>
+      <c r="E877" t="n">
+        <v>3.781</v>
+      </c>
+      <c r="F877" t="n">
+        <v>40530.607</v>
+      </c>
+      <c r="G877" t="n">
+        <v>-65719516.43812602</v>
+      </c>
+      <c r="H877" t="n">
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
+      <c r="L877" t="n">
+        <v>1</v>
+      </c>
+      <c r="M877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="C878" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="D878" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E878" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="F878" t="n">
+        <v>72781.19</v>
+      </c>
+      <c r="G878" t="n">
+        <v>-65646735.24812602</v>
+      </c>
+      <c r="H878" t="n">
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
+      <c r="L878" t="n">
+        <v>1</v>
+      </c>
+      <c r="M878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="C879" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D879" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E879" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F879" t="n">
+        <v>29305.5432</v>
+      </c>
+      <c r="G879" t="n">
+        <v>-65676040.79132602</v>
+      </c>
+      <c r="H879" t="n">
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
+      <c r="L879" t="n">
+        <v>1</v>
+      </c>
+      <c r="M879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C880" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D880" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E880" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F880" t="n">
+        <v>11517.8958</v>
+      </c>
+      <c r="G880" t="n">
+        <v>-65676040.79132602</v>
+      </c>
+      <c r="H880" t="n">
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
+      <c r="L880" t="n">
+        <v>1</v>
+      </c>
+      <c r="M880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C881" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D881" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E881" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F881" t="n">
+        <v>113771.9473</v>
+      </c>
+      <c r="G881" t="n">
+        <v>-65676040.79132602</v>
+      </c>
+      <c r="H881" t="n">
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
+      <c r="L881" t="n">
+        <v>1</v>
+      </c>
+      <c r="M881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C882" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D882" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E882" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F882" t="n">
+        <v>275043.9179</v>
+      </c>
+      <c r="G882" t="n">
+        <v>-65676040.79132602</v>
+      </c>
+      <c r="H882" t="n">
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
+      <c r="L882" t="n">
+        <v>1</v>
+      </c>
+      <c r="M882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="C883" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="D883" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E883" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="F883" t="n">
+        <v>199767.375</v>
+      </c>
+      <c r="G883" t="n">
+        <v>-65476273.41632602</v>
+      </c>
+      <c r="H883" t="n">
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
+      <c r="L883" t="n">
+        <v>1</v>
+      </c>
+      <c r="M883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="C884" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="D884" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E884" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="F884" t="n">
+        <v>178233.764</v>
+      </c>
+      <c r="G884" t="n">
+        <v>-65476273.41632602</v>
+      </c>
+      <c r="H884" t="n">
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
+      <c r="L884" t="n">
+        <v>1</v>
+      </c>
+      <c r="M884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="C885" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D885" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E885" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="F885" t="n">
+        <v>3625.4483</v>
+      </c>
+      <c r="G885" t="n">
+        <v>-65472647.96802603</v>
+      </c>
+      <c r="H885" t="n">
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="n">
+        <v>1</v>
+      </c>
+      <c r="M885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="C886" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="D886" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="E886" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="F886" t="n">
+        <v>458234.3183</v>
+      </c>
+      <c r="G886" t="n">
+        <v>-65014413.64972603</v>
+      </c>
+      <c r="H886" t="n">
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
+      <c r="L886" t="n">
+        <v>1</v>
+      </c>
+      <c r="M886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="C887" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="D887" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="E887" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="F887" t="n">
+        <v>394079.2954</v>
+      </c>
+      <c r="G887" t="n">
+        <v>-65014413.64972603</v>
+      </c>
+      <c r="H887" t="n">
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
+      <c r="L887" t="n">
+        <v>1</v>
+      </c>
+      <c r="M887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="C888" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="D888" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="E888" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="F888" t="n">
+        <v>257273.918</v>
+      </c>
+      <c r="G888" t="n">
+        <v>-65271687.56772602</v>
+      </c>
+      <c r="H888" t="n">
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
+      <c r="L888" t="n">
+        <v>1</v>
+      </c>
+      <c r="M888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="C889" t="n">
+        <v>3.817</v>
+      </c>
+      <c r="D889" t="n">
+        <v>3.817</v>
+      </c>
+      <c r="E889" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="F889" t="n">
+        <v>837354.6729006812</v>
+      </c>
+      <c r="G889" t="n">
+        <v>-64434332.89482534</v>
+      </c>
+      <c r="H889" t="n">
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
+      <c r="L889" t="n">
+        <v>1</v>
+      </c>
+      <c r="M889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="C890" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="D890" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="E890" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="F890" t="n">
+        <v>257562.254</v>
+      </c>
+      <c r="G890" t="n">
+        <v>-64691895.14882534</v>
+      </c>
+      <c r="H890" t="n">
+        <v>2</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
+      <c r="L890" t="n">
+        <v>1</v>
+      </c>
+      <c r="M890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="C891" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="D891" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="E891" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="F891" t="n">
+        <v>258053.515</v>
+      </c>
+      <c r="G891" t="n">
+        <v>-64949948.66382534</v>
+      </c>
+      <c r="H891" t="n">
+        <v>2</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
+      <c r="L891" t="n">
+        <v>1</v>
+      </c>
+      <c r="M891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C892" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="D892" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E892" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F892" t="n">
+        <v>259485.9825</v>
+      </c>
+      <c r="G892" t="n">
+        <v>-65209434.64632534</v>
+      </c>
+      <c r="H892" t="n">
+        <v>2</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
+      <c r="L892" t="n">
+        <v>1</v>
+      </c>
+      <c r="M892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C893" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D893" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E893" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F893" t="n">
+        <v>258992.9835</v>
+      </c>
+      <c r="G893" t="n">
+        <v>-65468427.62982534</v>
+      </c>
+      <c r="H893" t="n">
+        <v>2</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="n">
+        <v>1</v>
+      </c>
+      <c r="M893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C894" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D894" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E894" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F894" t="n">
+        <v>988.4636</v>
+      </c>
+      <c r="G894" t="n">
+        <v>-65468427.62982534</v>
+      </c>
+      <c r="H894" t="n">
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="n">
+        <v>1</v>
+      </c>
+      <c r="M894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="C895" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="D895" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E895" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="F895" t="n">
+        <v>259113.69</v>
+      </c>
+      <c r="G895" t="n">
+        <v>-65209313.93982534</v>
+      </c>
+      <c r="H895" t="n">
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="n">
+        <v>1</v>
+      </c>
+      <c r="M895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C896" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D896" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E896" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F896" t="n">
+        <v>262.7642</v>
+      </c>
+      <c r="G896" t="n">
+        <v>-65209576.70402534</v>
+      </c>
+      <c r="H896" t="n">
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="n">
+        <v>1</v>
+      </c>
+      <c r="M896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="C897" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D897" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E897" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F897" t="n">
+        <v>145791.8075</v>
+      </c>
+      <c r="G897" t="n">
+        <v>-65209576.70402534</v>
+      </c>
+      <c r="H897" t="n">
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="n">
+        <v>1</v>
+      </c>
+      <c r="M897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="C898" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D898" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E898" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F898" t="n">
+        <v>259442.972</v>
+      </c>
+      <c r="G898" t="n">
+        <v>-65209576.70402534</v>
+      </c>
+      <c r="H898" t="n">
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="n">
+        <v>1</v>
+      </c>
+      <c r="M898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="C899" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="D899" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E899" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="F899" t="n">
+        <v>258243.207</v>
+      </c>
+      <c r="G899" t="n">
+        <v>-64951333.49702534</v>
+      </c>
+      <c r="H899" t="n">
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
+      <c r="L899" t="n">
+        <v>1</v>
+      </c>
+      <c r="M899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="C900" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D900" t="n">
+        <v>3.817</v>
+      </c>
+      <c r="E900" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F900" t="n">
+        <v>262319.4734399266</v>
+      </c>
+      <c r="G900" t="n">
+        <v>-65213652.97046527</v>
+      </c>
+      <c r="H900" t="n">
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
+      <c r="L900" t="n">
+        <v>1</v>
+      </c>
+      <c r="M900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C901" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D901" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="E901" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F901" t="n">
+        <v>235610.3433</v>
+      </c>
+      <c r="G901" t="n">
+        <v>-65213652.97046527</v>
+      </c>
+      <c r="H901" t="n">
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
+      <c r="L901" t="n">
+        <v>1</v>
+      </c>
+      <c r="M901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="C902" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D902" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E902" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F902" t="n">
+        <v>1121.9562</v>
+      </c>
+      <c r="G902" t="n">
+        <v>-65213652.97046527</v>
+      </c>
+      <c r="H902" t="n">
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L824" t="n">
-        <v>1</v>
-      </c>
-      <c r="M824" t="inlineStr"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="B825" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="C825" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D825" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="E825" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="F825" t="n">
-        <v>42059.5352</v>
-      </c>
-      <c r="G825" t="n">
-        <v>-61460342.23972292</v>
-      </c>
-      <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L825" t="n">
-        <v>1</v>
-      </c>
-      <c r="M825" t="inlineStr"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="1" t="n">
-        <v>824</v>
-      </c>
-      <c r="B826" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="C826" t="n">
-        <v>3.752</v>
-      </c>
-      <c r="D826" t="n">
-        <v>3.752</v>
-      </c>
-      <c r="E826" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="F826" t="n">
-        <v>112071.6923</v>
-      </c>
-      <c r="G826" t="n">
-        <v>-61348270.54742292</v>
-      </c>
-      <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L826" t="n">
-        <v>1</v>
-      </c>
-      <c r="M826" t="inlineStr"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B827" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="C827" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D827" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="E827" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="F827" t="n">
-        <v>205700</v>
-      </c>
-      <c r="G827" t="n">
-        <v>-61553970.54742292</v>
-      </c>
-      <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L827" t="n">
-        <v>1</v>
-      </c>
-      <c r="M827" t="inlineStr"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="C828" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="D828" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="E828" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="F828" t="n">
-        <v>87893.836</v>
-      </c>
-      <c r="G828" t="n">
-        <v>-61466076.71142292</v>
-      </c>
-      <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L828" t="n">
-        <v>1</v>
-      </c>
-      <c r="M828" t="inlineStr"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B829" t="n">
-        <v>3.752</v>
-      </c>
-      <c r="C829" t="n">
-        <v>3.752</v>
-      </c>
-      <c r="D829" t="n">
-        <v>3.752</v>
-      </c>
-      <c r="E829" t="n">
-        <v>3.752</v>
-      </c>
-      <c r="F829" t="n">
-        <v>1443.37</v>
-      </c>
-      <c r="G829" t="n">
-        <v>-61464633.34142292</v>
-      </c>
-      <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L829" t="n">
-        <v>1</v>
-      </c>
-      <c r="M829" t="inlineStr"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="C830" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="D830" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="E830" t="n">
-        <v>3.751</v>
-      </c>
-      <c r="F830" t="n">
-        <v>97637.906</v>
-      </c>
-      <c r="G830" t="n">
-        <v>-61562271.24742293</v>
-      </c>
-      <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L830" t="n">
-        <v>1</v>
-      </c>
-      <c r="M830" t="inlineStr"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="C831" t="n">
-        <v>3.745</v>
-      </c>
-      <c r="D831" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="E831" t="n">
-        <v>3.745</v>
-      </c>
-      <c r="F831" t="n">
-        <v>71601.3817</v>
-      </c>
-      <c r="G831" t="n">
-        <v>-61633872.62912293</v>
-      </c>
-      <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L831" t="n">
-        <v>1</v>
-      </c>
-      <c r="M831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B832" t="n">
-        <v>3.747</v>
-      </c>
-      <c r="C832" t="n">
-        <v>3.747</v>
-      </c>
-      <c r="D832" t="n">
-        <v>3.747</v>
-      </c>
-      <c r="E832" t="n">
-        <v>3.747</v>
-      </c>
-      <c r="F832" t="n">
-        <v>131902.485</v>
-      </c>
-      <c r="G832" t="n">
-        <v>-61501970.14412293</v>
-      </c>
-      <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L832" t="n">
-        <v>1</v>
-      </c>
-      <c r="M832" t="inlineStr"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="B833" t="n">
-        <v>3.746</v>
-      </c>
-      <c r="C833" t="n">
-        <v>3.746</v>
-      </c>
-      <c r="D833" t="n">
-        <v>3.746</v>
-      </c>
-      <c r="E833" t="n">
-        <v>3.746</v>
-      </c>
-      <c r="F833" t="n">
-        <v>7792.145</v>
-      </c>
-      <c r="G833" t="n">
-        <v>-61509762.28912293</v>
-      </c>
-      <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L833" t="n">
-        <v>1</v>
-      </c>
-      <c r="M833" t="inlineStr"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B834" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="C834" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="D834" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="E834" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="F834" t="n">
-        <v>5180440.8209</v>
-      </c>
-      <c r="G834" t="n">
-        <v>-66690203.11002293</v>
-      </c>
-      <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L834" t="n">
-        <v>1</v>
-      </c>
-      <c r="M834" t="inlineStr"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B835" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="C835" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="D835" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="E835" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="F835" t="n">
-        <v>73299.031</v>
-      </c>
-      <c r="G835" t="n">
-        <v>-66616904.07902293</v>
-      </c>
-      <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L835" t="n">
-        <v>1</v>
-      </c>
-      <c r="M835" t="inlineStr"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B836" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="C836" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="D836" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="E836" t="n">
-        <v>3.729</v>
-      </c>
-      <c r="F836" t="n">
-        <v>182971.2955</v>
-      </c>
-      <c r="G836" t="n">
-        <v>-66433932.78352293</v>
-      </c>
-      <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L836" t="n">
-        <v>1</v>
-      </c>
-      <c r="M836" t="inlineStr"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B837" t="n">
-        <v>3.747</v>
-      </c>
-      <c r="C837" t="n">
-        <v>3.747</v>
-      </c>
-      <c r="D837" t="n">
-        <v>3.747</v>
-      </c>
-      <c r="E837" t="n">
-        <v>3.747</v>
-      </c>
-      <c r="F837" t="n">
-        <v>47172.691</v>
-      </c>
-      <c r="G837" t="n">
-        <v>-66481105.47452293</v>
-      </c>
-      <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L837" t="n">
-        <v>1</v>
-      </c>
-      <c r="M837" t="inlineStr"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="n">
-        <v>3.747</v>
-      </c>
-      <c r="C838" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="D838" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="E838" t="n">
-        <v>3.747</v>
-      </c>
-      <c r="F838" t="n">
-        <v>114702.0237</v>
-      </c>
-      <c r="G838" t="n">
-        <v>-66366403.45082293</v>
-      </c>
-      <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L838" t="n">
-        <v>1</v>
-      </c>
-      <c r="M838" t="inlineStr"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B839" t="n">
-        <v>3.746</v>
-      </c>
-      <c r="C839" t="n">
-        <v>3.746</v>
-      </c>
-      <c r="D839" t="n">
-        <v>3.746</v>
-      </c>
-      <c r="E839" t="n">
-        <v>3.746</v>
-      </c>
-      <c r="F839" t="n">
-        <v>12513.245</v>
-      </c>
-      <c r="G839" t="n">
-        <v>-66378916.69582292</v>
-      </c>
-      <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L839" t="n">
-        <v>1</v>
-      </c>
-      <c r="M839" t="inlineStr"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B840" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="C840" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="D840" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="E840" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="F840" t="n">
-        <v>49201.0182</v>
-      </c>
-      <c r="G840" t="n">
-        <v>-66329715.67762292</v>
-      </c>
-      <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L840" t="n">
-        <v>1</v>
-      </c>
-      <c r="M840" t="inlineStr"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B841" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="C841" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="D841" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="E841" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="F841" t="n">
-        <v>77182.045</v>
-      </c>
-      <c r="G841" t="n">
-        <v>-66406897.72262292</v>
-      </c>
-      <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L841" t="n">
-        <v>1</v>
-      </c>
-      <c r="M841" t="inlineStr"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B842" t="n">
-        <v>3.723</v>
-      </c>
-      <c r="C842" t="n">
-        <v>3.723</v>
-      </c>
-      <c r="D842" t="n">
-        <v>3.723</v>
-      </c>
-      <c r="E842" t="n">
-        <v>3.723</v>
-      </c>
-      <c r="F842" t="n">
-        <v>47866.7</v>
-      </c>
-      <c r="G842" t="n">
-        <v>-66359031.02262292</v>
-      </c>
-      <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="J842" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L842" t="n">
-        <v>1</v>
-      </c>
-      <c r="M842" t="inlineStr"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B843" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="C843" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="D843" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="E843" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="F843" t="n">
-        <v>7598.1237</v>
-      </c>
-      <c r="G843" t="n">
-        <v>-66366629.14632292</v>
-      </c>
-      <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>3.723</v>
-      </c>
-      <c r="J843" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L843" t="n">
-        <v>1</v>
-      </c>
-      <c r="M843" t="inlineStr"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B844" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="C844" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="D844" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="E844" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="F844" t="n">
-        <v>354.3398</v>
-      </c>
-      <c r="G844" t="n">
-        <v>-66366629.14632292</v>
-      </c>
-      <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="J844" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L844" t="n">
-        <v>1</v>
-      </c>
-      <c r="M844" t="inlineStr"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B845" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="C845" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="D845" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="E845" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="F845" t="n">
-        <v>41737.9462</v>
-      </c>
-      <c r="G845" t="n">
-        <v>-66324891.20012292</v>
-      </c>
-      <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="J845" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L845" t="n">
-        <v>1</v>
-      </c>
-      <c r="M845" t="inlineStr"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B846" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="C846" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="D846" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="E846" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="F846" t="n">
-        <v>166.5267</v>
-      </c>
-      <c r="G846" t="n">
-        <v>-66324891.20012292</v>
-      </c>
-      <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="J846" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L846" t="n">
-        <v>1</v>
-      </c>
-      <c r="M846" t="inlineStr"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B847" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="C847" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="D847" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="E847" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="F847" t="n">
-        <v>69415.664</v>
-      </c>
-      <c r="G847" t="n">
-        <v>-66255475.53612293</v>
-      </c>
-      <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>3.721</v>
-      </c>
-      <c r="J847" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L847" t="n">
-        <v>1</v>
-      </c>
-      <c r="M847" t="inlineStr"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B848" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="C848" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="D848" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="E848" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="F848" t="n">
-        <v>27267.425</v>
-      </c>
-      <c r="G848" t="n">
-        <v>-66228208.11112293</v>
-      </c>
-      <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="J848" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L848" t="n">
-        <v>1</v>
-      </c>
-      <c r="M848" t="inlineStr"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="B849" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="C849" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="D849" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="E849" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="F849" t="n">
-        <v>60980.657</v>
-      </c>
-      <c r="G849" t="n">
-        <v>-66228208.11112293</v>
-      </c>
-      <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="J849" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L849" t="n">
-        <v>1</v>
-      </c>
-      <c r="M849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B850" t="n">
-        <v>3.727</v>
-      </c>
-      <c r="C850" t="n">
-        <v>3.727</v>
-      </c>
-      <c r="D850" t="n">
-        <v>3.727</v>
-      </c>
-      <c r="E850" t="n">
-        <v>3.727</v>
-      </c>
-      <c r="F850" t="n">
-        <v>98053.518</v>
-      </c>
-      <c r="G850" t="n">
-        <v>-66130154.59312293</v>
-      </c>
-      <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="J850" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L850" t="n">
-        <v>1</v>
-      </c>
-      <c r="M850" t="inlineStr"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="B851" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="C851" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="D851" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="E851" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="F851" t="n">
-        <v>74327.8916</v>
-      </c>
-      <c r="G851" t="n">
-        <v>-66055826.70152293</v>
-      </c>
-      <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>3.727</v>
-      </c>
-      <c r="J851" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L851" t="n">
-        <v>1</v>
-      </c>
-      <c r="M851" t="inlineStr"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="B852" t="n">
-        <v>3.749</v>
-      </c>
-      <c r="C852" t="n">
-        <v>3.749</v>
-      </c>
-      <c r="D852" t="n">
-        <v>3.749</v>
-      </c>
-      <c r="E852" t="n">
-        <v>3.749</v>
-      </c>
-      <c r="F852" t="n">
-        <v>23349.804</v>
-      </c>
-      <c r="G852" t="n">
-        <v>-66032476.89752293</v>
-      </c>
-      <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>3.748</v>
-      </c>
-      <c r="J852" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L852" t="n">
-        <v>1</v>
-      </c>
-      <c r="M852" t="inlineStr"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="B853" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="C853" t="n">
-        <v>3.789</v>
-      </c>
-      <c r="D853" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="E853" t="n">
-        <v>3.789</v>
-      </c>
-      <c r="F853" t="n">
-        <v>57654.97793619826</v>
-      </c>
-      <c r="G853" t="n">
-        <v>-65974821.91958673</v>
-      </c>
-      <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L853" t="n">
-        <v>1</v>
-      </c>
-      <c r="M853" t="inlineStr"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B854" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="C854" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="D854" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="E854" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="F854" t="n">
-        <v>131649.353</v>
-      </c>
-      <c r="G854" t="n">
-        <v>-66106471.27258673</v>
-      </c>
-      <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L854" t="n">
-        <v>1</v>
-      </c>
-      <c r="M854" t="inlineStr"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="B855" t="n">
-        <v>3.788</v>
-      </c>
-      <c r="C855" t="n">
-        <v>3.788</v>
-      </c>
-      <c r="D855" t="n">
-        <v>3.788</v>
-      </c>
-      <c r="E855" t="n">
-        <v>3.788</v>
-      </c>
-      <c r="F855" t="n">
-        <v>15867.323</v>
-      </c>
-      <c r="G855" t="n">
-        <v>-66090603.94958673</v>
-      </c>
-      <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L855" t="n">
-        <v>1</v>
-      </c>
-      <c r="M855" t="inlineStr"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="1" t="n">
-        <v>854</v>
-      </c>
-      <c r="B856" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="C856" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D856" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="E856" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F856" t="n">
-        <v>150600.858</v>
-      </c>
-      <c r="G856" t="n">
-        <v>-65940003.09158673</v>
-      </c>
-      <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L856" t="n">
-        <v>1</v>
-      </c>
-      <c r="M856" t="inlineStr"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="1" t="n">
-        <v>855</v>
-      </c>
-      <c r="B857" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="C857" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="D857" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="E857" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="F857" t="n">
-        <v>258095.991</v>
-      </c>
-      <c r="G857" t="n">
-        <v>-65681907.10058673</v>
-      </c>
-      <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L857" t="n">
-        <v>1</v>
-      </c>
-      <c r="M857" t="inlineStr"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="1" t="n">
-        <v>856</v>
-      </c>
-      <c r="B858" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="C858" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="D858" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="E858" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="F858" t="n">
-        <v>32430.27499140522</v>
-      </c>
-      <c r="G858" t="n">
-        <v>-65649476.82559533</v>
-      </c>
-      <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L858" t="n">
-        <v>1</v>
-      </c>
-      <c r="M858" t="inlineStr"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="1" t="n">
-        <v>857</v>
-      </c>
-      <c r="B859" t="n">
-        <v>3.806</v>
-      </c>
-      <c r="C859" t="n">
-        <v>3.807</v>
-      </c>
-      <c r="D859" t="n">
-        <v>3.807</v>
-      </c>
-      <c r="E859" t="n">
-        <v>3.806</v>
-      </c>
-      <c r="F859" t="n">
-        <v>73299.33876931161</v>
-      </c>
-      <c r="G859" t="n">
-        <v>-65576177.48682602</v>
-      </c>
-      <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L859" t="n">
-        <v>1</v>
-      </c>
-      <c r="M859" t="inlineStr"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B860" t="n">
-        <v>3.808</v>
-      </c>
-      <c r="C860" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="D860" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="E860" t="n">
-        <v>3.808</v>
-      </c>
-      <c r="F860" t="n">
-        <v>133023.041</v>
-      </c>
-      <c r="G860" t="n">
-        <v>-65443154.44582602</v>
-      </c>
-      <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L860" t="n">
-        <v>1</v>
-      </c>
-      <c r="M860" t="inlineStr"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="1" t="n">
-        <v>859</v>
-      </c>
-      <c r="B861" t="n">
-        <v>3.813</v>
-      </c>
-      <c r="C861" t="n">
-        <v>3.813</v>
-      </c>
-      <c r="D861" t="n">
-        <v>3.813</v>
-      </c>
-      <c r="E861" t="n">
-        <v>3.813</v>
-      </c>
-      <c r="F861" t="n">
-        <v>386.882</v>
-      </c>
-      <c r="G861" t="n">
-        <v>-65442767.56382602</v>
-      </c>
-      <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L861" t="n">
-        <v>1</v>
-      </c>
-      <c r="M861" t="inlineStr"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="1" t="n">
-        <v>860</v>
-      </c>
-      <c r="B862" t="n">
-        <v>3.809</v>
-      </c>
-      <c r="C862" t="n">
-        <v>3.809</v>
-      </c>
-      <c r="D862" t="n">
-        <v>3.809</v>
-      </c>
-      <c r="E862" t="n">
-        <v>3.809</v>
-      </c>
-      <c r="F862" t="n">
-        <v>58398.034</v>
-      </c>
-      <c r="G862" t="n">
-        <v>-65501165.59782602</v>
-      </c>
-      <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L862" t="n">
-        <v>1</v>
-      </c>
-      <c r="M862" t="inlineStr"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="1" t="n">
-        <v>861</v>
-      </c>
-      <c r="B863" t="n">
-        <v>3.806</v>
-      </c>
-      <c r="C863" t="n">
-        <v>3.806</v>
-      </c>
-      <c r="D863" t="n">
-        <v>3.806</v>
-      </c>
-      <c r="E863" t="n">
-        <v>3.806</v>
-      </c>
-      <c r="F863" t="n">
-        <v>101092.816</v>
-      </c>
-      <c r="G863" t="n">
-        <v>-65602258.41382602</v>
-      </c>
-      <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L863" t="n">
-        <v>1</v>
-      </c>
-      <c r="M863" t="inlineStr"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="1" t="n">
-        <v>862</v>
-      </c>
-      <c r="B864" t="n">
-        <v>3.808</v>
-      </c>
-      <c r="C864" t="n">
-        <v>3.808</v>
-      </c>
-      <c r="D864" t="n">
-        <v>3.808</v>
-      </c>
-      <c r="E864" t="n">
-        <v>3.808</v>
-      </c>
-      <c r="F864" t="n">
-        <v>3156.829</v>
-      </c>
-      <c r="G864" t="n">
-        <v>-65599101.58482601</v>
-      </c>
-      <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L864" t="n">
-        <v>1</v>
-      </c>
-      <c r="M864" t="inlineStr"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="1" t="n">
-        <v>863</v>
-      </c>
-      <c r="B865" t="n">
-        <v>3.807</v>
-      </c>
-      <c r="C865" t="n">
-        <v>3.807</v>
-      </c>
-      <c r="D865" t="n">
-        <v>3.807</v>
-      </c>
-      <c r="E865" t="n">
-        <v>3.807</v>
-      </c>
-      <c r="F865" t="n">
-        <v>66631.478</v>
-      </c>
-      <c r="G865" t="n">
-        <v>-65665733.06282602</v>
-      </c>
-      <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L865" t="n">
-        <v>1</v>
-      </c>
-      <c r="M865" t="inlineStr"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="B866" t="n">
-        <v>3.789</v>
-      </c>
-      <c r="C866" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D866" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="E866" t="n">
-        <v>3.789</v>
-      </c>
-      <c r="F866" t="n">
-        <v>123408.3633</v>
-      </c>
-      <c r="G866" t="n">
-        <v>-65789141.42612602</v>
-      </c>
-      <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L866" t="n">
-        <v>1</v>
-      </c>
-      <c r="M866" t="inlineStr"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="1" t="n">
-        <v>865</v>
-      </c>
-      <c r="B867" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C867" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D867" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="E867" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F867" t="n">
-        <v>9590.9625</v>
-      </c>
-      <c r="G867" t="n">
-        <v>-65779550.46362602</v>
-      </c>
-      <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L867" t="n">
-        <v>1</v>
-      </c>
-      <c r="M867" t="inlineStr"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="1" t="n">
-        <v>866</v>
-      </c>
-      <c r="B868" t="n">
-        <v>3.799</v>
-      </c>
-      <c r="C868" t="n">
-        <v>3.799</v>
-      </c>
-      <c r="D868" t="n">
-        <v>3.799</v>
-      </c>
-      <c r="E868" t="n">
-        <v>3.799</v>
-      </c>
-      <c r="F868" t="n">
-        <v>6201.233</v>
-      </c>
-      <c r="G868" t="n">
-        <v>-65785751.69662602</v>
-      </c>
-      <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L868" t="n">
-        <v>1</v>
-      </c>
-      <c r="M868" t="inlineStr"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="1" t="n">
-        <v>867</v>
-      </c>
-      <c r="B869" t="n">
-        <v>3.797</v>
-      </c>
-      <c r="C869" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="D869" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="E869" t="n">
-        <v>3.797</v>
-      </c>
-      <c r="F869" t="n">
-        <v>44808.6075</v>
-      </c>
-      <c r="G869" t="n">
-        <v>-65740943.08912602</v>
-      </c>
-      <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L869" t="n">
-        <v>1</v>
-      </c>
-      <c r="M869" t="inlineStr"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="1" t="n">
-        <v>868</v>
-      </c>
-      <c r="B870" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="C870" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="D870" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="E870" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="F870" t="n">
-        <v>71608.382</v>
-      </c>
-      <c r="G870" t="n">
-        <v>-65669334.70712602</v>
-      </c>
-      <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L870" t="n">
-        <v>1</v>
-      </c>
-      <c r="M870" t="inlineStr"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="1" t="n">
-        <v>869</v>
-      </c>
-      <c r="B871" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="C871" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="D871" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="E871" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F871" t="n">
-        <v>102655.6875</v>
-      </c>
-      <c r="G871" t="n">
-        <v>-65771990.39462602</v>
-      </c>
-      <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L871" t="n">
-        <v>1</v>
-      </c>
-      <c r="M871" t="inlineStr"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="1" t="n">
-        <v>870</v>
-      </c>
-      <c r="B872" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="C872" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D872" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="E872" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="F872" t="n">
-        <v>26393.78</v>
-      </c>
-      <c r="G872" t="n">
-        <v>-65798384.17462602</v>
-      </c>
-      <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L872" t="n">
-        <v>1</v>
-      </c>
-      <c r="M872" t="inlineStr"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B873" t="n">
-        <v>3.779</v>
-      </c>
-      <c r="C873" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="D873" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="E873" t="n">
-        <v>3.779</v>
-      </c>
-      <c r="F873" t="n">
-        <v>131195.8435</v>
-      </c>
-      <c r="G873" t="n">
-        <v>-65667188.33112602</v>
-      </c>
-      <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L873" t="n">
-        <v>1</v>
-      </c>
-      <c r="M873" t="inlineStr"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="B874" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="C874" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="D874" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="E874" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F874" t="n">
-        <v>70410.6434</v>
-      </c>
-      <c r="G874" t="n">
-        <v>-65667188.33112602</v>
-      </c>
-      <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L874" t="n">
-        <v>1</v>
-      </c>
-      <c r="M874" t="inlineStr"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="1" t="n">
-        <v>873</v>
-      </c>
-      <c r="B875" t="n">
-        <v>3.779</v>
-      </c>
-      <c r="C875" t="n">
-        <v>3.779</v>
-      </c>
-      <c r="D875" t="n">
-        <v>3.779</v>
-      </c>
-      <c r="E875" t="n">
-        <v>3.779</v>
-      </c>
-      <c r="F875" t="n">
-        <v>81760.573</v>
-      </c>
-      <c r="G875" t="n">
-        <v>-65748948.90412602</v>
-      </c>
-      <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L875" t="n">
-        <v>1</v>
-      </c>
-      <c r="M875" t="inlineStr"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="1" t="n">
-        <v>874</v>
-      </c>
-      <c r="B876" t="n">
-        <v>3.776</v>
-      </c>
-      <c r="C876" t="n">
-        <v>3.776</v>
-      </c>
-      <c r="D876" t="n">
-        <v>3.776</v>
-      </c>
-      <c r="E876" t="n">
-        <v>3.776</v>
-      </c>
-      <c r="F876" t="n">
-        <v>11098.141</v>
-      </c>
-      <c r="G876" t="n">
-        <v>-65760047.04512602</v>
-      </c>
-      <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L876" t="n">
-        <v>1</v>
-      </c>
-      <c r="M876" t="inlineStr"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="1" t="n">
-        <v>875</v>
-      </c>
-      <c r="B877" t="n">
-        <v>3.781</v>
-      </c>
-      <c r="C877" t="n">
-        <v>3.781</v>
-      </c>
-      <c r="D877" t="n">
-        <v>3.781</v>
-      </c>
-      <c r="E877" t="n">
-        <v>3.781</v>
-      </c>
-      <c r="F877" t="n">
-        <v>40530.607</v>
-      </c>
-      <c r="G877" t="n">
-        <v>-65719516.43812602</v>
-      </c>
-      <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L877" t="n">
-        <v>1</v>
-      </c>
-      <c r="M877" t="inlineStr"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="1" t="n">
-        <v>876</v>
-      </c>
-      <c r="B878" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="C878" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="D878" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="E878" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="F878" t="n">
-        <v>72781.19</v>
-      </c>
-      <c r="G878" t="n">
-        <v>-65646735.24812602</v>
-      </c>
-      <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L878" t="n">
-        <v>1</v>
-      </c>
-      <c r="M878" t="inlineStr"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="1" t="n">
-        <v>877</v>
-      </c>
-      <c r="B879" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="C879" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D879" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="E879" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F879" t="n">
-        <v>29305.5432</v>
-      </c>
-      <c r="G879" t="n">
-        <v>-65676040.79132602</v>
-      </c>
-      <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L879" t="n">
-        <v>1</v>
-      </c>
-      <c r="M879" t="inlineStr"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="1" t="n">
-        <v>878</v>
-      </c>
-      <c r="B880" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="C880" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D880" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="E880" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F880" t="n">
-        <v>11517.8958</v>
-      </c>
-      <c r="G880" t="n">
-        <v>-65676040.79132602</v>
-      </c>
-      <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L880" t="n">
-        <v>1</v>
-      </c>
-      <c r="M880" t="inlineStr"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="1" t="n">
-        <v>879</v>
-      </c>
-      <c r="B881" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="C881" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D881" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="E881" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F881" t="n">
-        <v>113771.9473</v>
-      </c>
-      <c r="G881" t="n">
-        <v>-65676040.79132602</v>
-      </c>
-      <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L881" t="n">
-        <v>1</v>
-      </c>
-      <c r="M881" t="inlineStr"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="1" t="n">
-        <v>880</v>
-      </c>
-      <c r="B882" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="C882" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D882" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="E882" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F882" t="n">
-        <v>275043.9179</v>
-      </c>
-      <c r="G882" t="n">
-        <v>-65676040.79132602</v>
-      </c>
-      <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L882" t="n">
-        <v>1</v>
-      </c>
-      <c r="M882" t="inlineStr"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="1" t="n">
-        <v>881</v>
-      </c>
-      <c r="B883" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="C883" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="D883" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="E883" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="F883" t="n">
-        <v>199767.375</v>
-      </c>
-      <c r="G883" t="n">
-        <v>-65476273.41632602</v>
-      </c>
-      <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L883" t="n">
-        <v>1</v>
-      </c>
-      <c r="M883" t="inlineStr"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="1" t="n">
-        <v>882</v>
-      </c>
-      <c r="B884" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="C884" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="D884" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="E884" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="F884" t="n">
-        <v>178233.764</v>
-      </c>
-      <c r="G884" t="n">
-        <v>-65476273.41632602</v>
-      </c>
-      <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L884" t="n">
-        <v>1</v>
-      </c>
-      <c r="M884" t="inlineStr"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="1" t="n">
-        <v>883</v>
-      </c>
-      <c r="B885" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="C885" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="D885" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="E885" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="F885" t="n">
-        <v>3625.4483</v>
-      </c>
-      <c r="G885" t="n">
-        <v>-65472647.96802603</v>
-      </c>
-      <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L885" t="n">
-        <v>1</v>
-      </c>
-      <c r="M885" t="inlineStr"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="1" t="n">
-        <v>884</v>
-      </c>
-      <c r="B886" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="C886" t="n">
-        <v>3.816</v>
-      </c>
-      <c r="D886" t="n">
-        <v>3.816</v>
-      </c>
-      <c r="E886" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="F886" t="n">
-        <v>458234.3183</v>
-      </c>
-      <c r="G886" t="n">
-        <v>-65014413.64972603</v>
-      </c>
-      <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L886" t="n">
-        <v>1</v>
-      </c>
-      <c r="M886" t="inlineStr"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="1" t="n">
-        <v>885</v>
-      </c>
-      <c r="B887" t="n">
-        <v>3.816</v>
-      </c>
-      <c r="C887" t="n">
-        <v>3.816</v>
-      </c>
-      <c r="D887" t="n">
-        <v>3.816</v>
-      </c>
-      <c r="E887" t="n">
-        <v>3.816</v>
-      </c>
-      <c r="F887" t="n">
-        <v>394079.2954</v>
-      </c>
-      <c r="G887" t="n">
-        <v>-65014413.64972603</v>
-      </c>
-      <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L887" t="n">
-        <v>1</v>
-      </c>
-      <c r="M887" t="inlineStr"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="1" t="n">
-        <v>886</v>
-      </c>
-      <c r="B888" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="C888" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="D888" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="E888" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="F888" t="n">
-        <v>257273.918</v>
-      </c>
-      <c r="G888" t="n">
-        <v>-65271687.56772602</v>
-      </c>
-      <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L888" t="n">
-        <v>1</v>
-      </c>
-      <c r="M888" t="inlineStr"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="1" t="n">
-        <v>887</v>
-      </c>
-      <c r="B889" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="C889" t="n">
-        <v>3.817</v>
-      </c>
-      <c r="D889" t="n">
-        <v>3.817</v>
-      </c>
-      <c r="E889" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="F889" t="n">
-        <v>837354.6729006812</v>
-      </c>
-      <c r="G889" t="n">
-        <v>-64434332.89482534</v>
-      </c>
-      <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L889" t="n">
-        <v>1</v>
-      </c>
-      <c r="M889" t="inlineStr"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="1" t="n">
-        <v>888</v>
-      </c>
-      <c r="B890" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="C890" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="D890" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="E890" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="F890" t="n">
-        <v>257562.254</v>
-      </c>
-      <c r="G890" t="n">
-        <v>-64691895.14882534</v>
-      </c>
-      <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L890" t="n">
-        <v>1</v>
-      </c>
-      <c r="M890" t="inlineStr"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="1" t="n">
-        <v>889</v>
-      </c>
-      <c r="B891" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="C891" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="D891" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="E891" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="F891" t="n">
-        <v>258053.515</v>
-      </c>
-      <c r="G891" t="n">
-        <v>-64949948.66382534</v>
-      </c>
-      <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L891" t="n">
-        <v>1</v>
-      </c>
-      <c r="M891" t="inlineStr"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="1" t="n">
-        <v>890</v>
-      </c>
-      <c r="B892" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="C892" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="D892" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="E892" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F892" t="n">
-        <v>259485.9825</v>
-      </c>
-      <c r="G892" t="n">
-        <v>-65209434.64632534</v>
-      </c>
-      <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L892" t="n">
-        <v>1</v>
-      </c>
-      <c r="M892" t="inlineStr"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="1" t="n">
-        <v>891</v>
-      </c>
-      <c r="B893" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="C893" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D893" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="E893" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F893" t="n">
-        <v>258992.9835</v>
-      </c>
-      <c r="G893" t="n">
-        <v>-65468427.62982534</v>
-      </c>
-      <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L893" t="n">
-        <v>1</v>
-      </c>
-      <c r="M893" t="inlineStr"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="1" t="n">
-        <v>892</v>
-      </c>
-      <c r="B894" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="C894" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D894" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="E894" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F894" t="n">
-        <v>988.4636</v>
-      </c>
-      <c r="G894" t="n">
-        <v>-65468427.62982534</v>
-      </c>
-      <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L894" t="n">
-        <v>1</v>
-      </c>
-      <c r="M894" t="inlineStr"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="1" t="n">
-        <v>893</v>
-      </c>
-      <c r="B895" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="C895" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="D895" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="E895" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="F895" t="n">
-        <v>259113.69</v>
-      </c>
-      <c r="G895" t="n">
-        <v>-65209313.93982534</v>
-      </c>
-      <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L895" t="n">
-        <v>1</v>
-      </c>
-      <c r="M895" t="inlineStr"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="1" t="n">
-        <v>894</v>
-      </c>
-      <c r="B896" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="C896" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D896" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="E896" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F896" t="n">
-        <v>262.7642</v>
-      </c>
-      <c r="G896" t="n">
-        <v>-65209576.70402534</v>
-      </c>
-      <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L896" t="n">
-        <v>1</v>
-      </c>
-      <c r="M896" t="inlineStr"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="1" t="n">
-        <v>895</v>
-      </c>
-      <c r="B897" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="C897" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D897" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="E897" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F897" t="n">
-        <v>145791.8075</v>
-      </c>
-      <c r="G897" t="n">
-        <v>-65209576.70402534</v>
-      </c>
-      <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L897" t="n">
-        <v>1</v>
-      </c>
-      <c r="M897" t="inlineStr"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="1" t="n">
-        <v>896</v>
-      </c>
-      <c r="B898" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="C898" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D898" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="E898" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F898" t="n">
-        <v>259442.972</v>
-      </c>
-      <c r="G898" t="n">
-        <v>-65209576.70402534</v>
-      </c>
-      <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L898" t="n">
-        <v>1</v>
-      </c>
-      <c r="M898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="1" t="n">
-        <v>897</v>
-      </c>
-      <c r="B899" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="C899" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="D899" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="E899" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="F899" t="n">
-        <v>258243.207</v>
-      </c>
-      <c r="G899" t="n">
-        <v>-64951333.49702534</v>
-      </c>
-      <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L899" t="n">
-        <v>1</v>
-      </c>
-      <c r="M899" t="inlineStr"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="1" t="n">
-        <v>898</v>
-      </c>
-      <c r="B900" t="n">
-        <v>3.809</v>
-      </c>
-      <c r="C900" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D900" t="n">
-        <v>3.817</v>
-      </c>
-      <c r="E900" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F900" t="n">
-        <v>262319.4734399266</v>
-      </c>
-      <c r="G900" t="n">
-        <v>-65213652.97046527</v>
-      </c>
-      <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L900" t="n">
-        <v>1</v>
-      </c>
-      <c r="M900" t="inlineStr"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="1" t="n">
-        <v>899</v>
-      </c>
-      <c r="B901" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="C901" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D901" t="n">
-        <v>3.791</v>
-      </c>
-      <c r="E901" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F901" t="n">
-        <v>235610.3433</v>
-      </c>
-      <c r="G901" t="n">
-        <v>-65213652.97046527</v>
-      </c>
-      <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L901" t="n">
-        <v>1</v>
-      </c>
-      <c r="M901" t="inlineStr"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="B902" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="C902" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D902" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="E902" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F902" t="n">
-        <v>1121.9562</v>
-      </c>
-      <c r="G902" t="n">
-        <v>-65213652.97046527</v>
-      </c>
-      <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30692,12 +30190,12 @@
         <v>-65213652.97046527</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>3.792</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30731,12 +30229,12 @@
         <v>-65212764.97046527</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>3.792</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30770,12 +30268,12 @@
         <v>-65220797.41806526</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>3.792</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>3.817</v>
+      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30809,12 +30307,12 @@
         <v>-65326952.64606526</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>3.792</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30848,12 +30346,12 @@
         <v>-64876286.64606526</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>3.792</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>3.789</v>
+      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30887,12 +30385,12 @@
         <v>-65056274.48306526</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>3.792</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30904,6 +30402,6 @@
       <c r="M908" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-16 BackTest TMTG.xlsx
@@ -1144,7 +1144,7 @@
         <v>-8495271.571560759</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-8376498.041560759</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-8172569.957560759</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-8104229.043560759</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-8598062.104160758</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-8358833.648160757</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-8119339.534160757</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-8359379.624160757</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-8120376.618160757</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-7881608.775160757</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-7847358.726160757</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8029504.385160757</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-7789559.482160757</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8084720.159860757</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8084720.159860757</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-8471320.515760757</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-8232159.501760757</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-8232159.501760757</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-8176088.456760757</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-8284698.692760756</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-8335127.296360756</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-8176519.516360756</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-8243185.878760756</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-8177290.771760756</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-8032460.736760756</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-8242642.173760756</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-8207693.804760756</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-8289615.056760756</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-8139379.819760757</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-8131182.973760757</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-8062664.601760756</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-7939528.774760757</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-7737629.671960756</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-7691291.380960756</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-7671982.254460756</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-7517593.432660756</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-7755846.294660755</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-7755846.294660755</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-7753777.778460755</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-7753777.778460755</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-7798757.337460755</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-7832431.474060755</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-7730680.835060755</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-7553417.915060755</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-7559256.273960755</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-7719308.351960755</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-7481243.996960755</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-7499008.448560755</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-7499008.448560755</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-7531943.466560755</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-7531943.466560755</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-7572752.301460755</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-7712806.426460755</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-8290021.351560755</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-8348422.327860755</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8174081.907860755</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-8174081.907860755</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-8136324.984860755</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-7896530.859860755</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-8136470.572860755</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-7896314.872860755</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-7853648.372860755</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-7758897.798860755</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-7948975.674860755</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-8486215.524460755</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-8246602.362460755</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-8246602.362460755</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-8246602.362460755</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-8236406.449460755</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-8447490.477460755</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-8207937.489460755</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-7967422.401460756</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-8025747.593460755</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-7920008.009460756</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-8069266.646460756</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-8264534.153560756</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-8175380.409560756</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-8019074.420560756</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-7796095.951560756</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-7780072.315560756</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-7693630.259560756</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-7825577.987560757</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-8024899.553560756</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-8002061.141560757</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-7942463.316560756</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-8043688.129560756</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-8044114.641560757</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-8044114.641560757</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-7964876.084560757</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-7857031.687560757</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-7848335.256560757</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-7878002.863560757</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7780010.950560757</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-7639320.817560757</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-7640119.617560756</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-7614736.905560756</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-7614736.905560756</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-7501374.385560757</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-7498599.361560756</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-7457941.985560756</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-7541341.356560756</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-7701173.383560756</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-7692151.390560756</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-7733961.924560756</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-7733961.924560756</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-7602485.936560757</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-7619238.282560756</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-7875972.523960756</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-7928973.707960756</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-7928973.707960756</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-7984444.082960756</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-8082565.883960756</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-8215263.440960757</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-10938721.41776076</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-15057607.81086076</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-15390697.67356076</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-15274846.96546076</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-15272687.80546076</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-15276920.51346076</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-15276599.39346076</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-15280667.06146076</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-15274956.87346076</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-15269683.72846076</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-15269683.72846076</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-15278721.70046076</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-15279493.53246076</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-15418524.61616076</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-15422265.71716076</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-15475583.84416076</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-15476962.67306077</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-15473440.37006077</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-15470133.92206077</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-15470005.55606076</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-15469179.49106077</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-15743280.90336077</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-34274651.05418313</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-34924651.05418313</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-34459969.98188312</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-34516414.33778312</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-34662742.24498312</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-34738852.78668312</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-34925617.21148312</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-39845462.94450092</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-39753617.60900091</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-38985785.38654104</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-37300380.69000091</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-37294085.26100092</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-37601332.32150092</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-37601332.32150092</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-37642781.36960092</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-37692046.52890092</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-37718001.57590092</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-37713530.10678253</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-37717600.18878253</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-37479169.18410092</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-37484335.27110092</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-37486547.16461928</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-37484133.82261928</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-37480165.85361928</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-37449402.87331928</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -28237,10 +28237,14 @@
         <v>-66366629.14632292</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="J844" t="n">
+        <v>3.72</v>
+      </c>
       <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
@@ -28270,11 +28274,19 @@
         <v>-66324891.20012292</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="J845" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28303,11 +28315,19 @@
         <v>-66324891.20012292</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="J846" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28336,10 +28356,14 @@
         <v>-66255475.53612293</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="J847" t="n">
+        <v>3.721</v>
+      </c>
       <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
@@ -28369,11 +28393,19 @@
         <v>-66228208.11112293</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="J848" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28402,11 +28434,19 @@
         <v>-66228208.11112293</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="J849" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28435,10 +28475,14 @@
         <v>-66130154.59312293</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="J850" t="n">
+        <v>3.724</v>
+      </c>
       <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
@@ -28468,11 +28512,19 @@
         <v>-66055826.70152293</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>3.727</v>
+      </c>
+      <c r="J851" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28501,11 +28553,19 @@
         <v>-66032476.89752293</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="J852" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28534,10 +28594,14 @@
         <v>-65974821.91958673</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>3.749</v>
+      </c>
+      <c r="J853" t="n">
+        <v>3.749</v>
+      </c>
       <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
@@ -28567,11 +28631,19 @@
         <v>-66106471.27258673</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>3.789</v>
+      </c>
+      <c r="J854" t="n">
+        <v>3.749</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28603,8 +28675,14 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>3.749</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29755,7 +29833,7 @@
         <v>-64691895.14882534</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29866,7 @@
         <v>-64949948.66382534</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29899,7 @@
         <v>-65209434.64632534</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29932,7 @@
         <v>-65468427.62982534</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30151,17 +30229,11 @@
         <v>-65213652.97046527</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>3.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30190,17 +30262,11 @@
         <v>-65213652.97046527</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>3.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30229,17 +30295,11 @@
         <v>-65212764.97046527</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>3.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30268,17 +30328,11 @@
         <v>-65220797.41806526</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>3.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30307,17 +30361,11 @@
         <v>-65326952.64606526</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>3.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30346,17 +30394,11 @@
         <v>-64876286.64606526</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>3.789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30385,17 +30427,11 @@
         <v>-65056274.48306526</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>3.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
